--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cadm1-Cadm1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cadm1-Cadm1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.515984</v>
+        <v>0.9817236666666668</v>
       </c>
       <c r="H2">
-        <v>7.547951999999999</v>
+        <v>2.945171</v>
       </c>
       <c r="I2">
-        <v>0.08781336966822691</v>
+        <v>0.04688329326954743</v>
       </c>
       <c r="J2">
-        <v>0.09884082726736675</v>
+        <v>0.04832841473263862</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.515984</v>
+        <v>0.9817236666666668</v>
       </c>
       <c r="N2">
-        <v>7.547951999999999</v>
+        <v>2.945171</v>
       </c>
       <c r="O2">
-        <v>0.08781336966822691</v>
+        <v>0.04688329326954743</v>
       </c>
       <c r="P2">
-        <v>0.09884082726736675</v>
+        <v>0.04832841473263862</v>
       </c>
       <c r="Q2">
-        <v>6.330175488255998</v>
+        <v>0.9637813576934446</v>
       </c>
       <c r="R2">
-        <v>56.97157939430398</v>
+        <v>8.674032219241001</v>
       </c>
       <c r="S2">
-        <v>0.007711187892488674</v>
+        <v>0.002198043187798391</v>
       </c>
       <c r="T2">
-        <v>0.009769509134897429</v>
+        <v>0.002335635670569921</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.515984</v>
+        <v>0.9817236666666668</v>
       </c>
       <c r="H3">
-        <v>7.547951999999999</v>
+        <v>2.945171</v>
       </c>
       <c r="I3">
-        <v>0.08781336966822691</v>
+        <v>0.04688329326954743</v>
       </c>
       <c r="J3">
-        <v>0.09884082726736675</v>
+        <v>0.04832841473263862</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.10016866666667</v>
+        <v>5.154927333333333</v>
       </c>
       <c r="N3">
-        <v>30.300506</v>
+        <v>15.464782</v>
       </c>
       <c r="O3">
-        <v>0.3525180783492433</v>
+        <v>0.2461792235003055</v>
       </c>
       <c r="P3">
-        <v>0.396786715079774</v>
+        <v>0.2537674037418691</v>
       </c>
       <c r="Q3">
-        <v>25.41186276263466</v>
+        <v>5.060714163080223</v>
       </c>
       <c r="R3">
-        <v>228.706764863712</v>
+        <v>45.546427467722</v>
       </c>
       <c r="S3">
-        <v>0.03095580032881508</v>
+        <v>0.01154169273223428</v>
       </c>
       <c r="T3">
-        <v>0.0392187271671858</v>
+        <v>0.012264176333662</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.515984</v>
+        <v>0.9817236666666668</v>
       </c>
       <c r="H4">
-        <v>7.547951999999999</v>
+        <v>2.945171</v>
       </c>
       <c r="I4">
-        <v>0.08781336966822691</v>
+        <v>0.04688329326954743</v>
       </c>
       <c r="J4">
-        <v>0.09884082726736675</v>
+        <v>0.04832841473263862</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.589755</v>
+        <v>1.8784265</v>
       </c>
       <c r="N4">
-        <v>19.17951</v>
+        <v>3.756853</v>
       </c>
       <c r="O4">
-        <v>0.3347035199121804</v>
+        <v>0.08970632314876403</v>
       </c>
       <c r="P4">
-        <v>0.2511566892559377</v>
+        <v>0.06164760887349412</v>
       </c>
       <c r="Q4">
-        <v>24.12767014392</v>
+        <v>1.844095751143833</v>
       </c>
       <c r="R4">
-        <v>144.76602086352</v>
+        <v>11.064574506863</v>
       </c>
       <c r="S4">
-        <v>0.02939144392330505</v>
+        <v>0.004205727856316295</v>
       </c>
       <c r="T4">
-        <v>0.02482453493978985</v>
+        <v>0.002979331208913716</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.515984</v>
+        <v>0.9817236666666668</v>
       </c>
       <c r="H5">
-        <v>7.547951999999999</v>
+        <v>2.945171</v>
       </c>
       <c r="I5">
-        <v>0.08781336966822691</v>
+        <v>0.04688329326954743</v>
       </c>
       <c r="J5">
-        <v>0.09884082726736675</v>
+        <v>0.04832841473263862</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.445583666666667</v>
+        <v>12.924656</v>
       </c>
       <c r="N5">
-        <v>19.336751</v>
+        <v>38.773968</v>
       </c>
       <c r="O5">
-        <v>0.2249650320703492</v>
+        <v>0.617231160081383</v>
       </c>
       <c r="P5">
-        <v>0.2532157683969216</v>
+        <v>0.6362565726519981</v>
       </c>
       <c r="Q5">
-        <v>16.21698537599466</v>
+        <v>12.68844067872533</v>
       </c>
       <c r="R5">
-        <v>145.952868383952</v>
+        <v>114.195966108528</v>
       </c>
       <c r="S5">
-        <v>0.0197549375236181</v>
+        <v>0.02893782949319845</v>
       </c>
       <c r="T5">
-        <v>0.02502805602549367</v>
+        <v>0.03074927151949298</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.10016866666667</v>
+        <v>5.154927333333333</v>
       </c>
       <c r="H6">
-        <v>30.300506</v>
+        <v>15.464782</v>
       </c>
       <c r="I6">
-        <v>0.3525180783492433</v>
+        <v>0.2461792235003055</v>
       </c>
       <c r="J6">
-        <v>0.396786715079774</v>
+        <v>0.2537674037418691</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.515984</v>
+        <v>0.9817236666666668</v>
       </c>
       <c r="N6">
-        <v>7.547951999999999</v>
+        <v>2.945171</v>
       </c>
       <c r="O6">
-        <v>0.08781336966822691</v>
+        <v>0.04688329326954743</v>
       </c>
       <c r="P6">
-        <v>0.09884082726736675</v>
+        <v>0.04832841473263862</v>
       </c>
       <c r="Q6">
-        <v>25.41186276263466</v>
+        <v>5.060714163080223</v>
       </c>
       <c r="R6">
-        <v>228.706764863712</v>
+        <v>45.546427467722</v>
       </c>
       <c r="S6">
-        <v>0.03095580032881508</v>
+        <v>0.01154169273223428</v>
       </c>
       <c r="T6">
-        <v>0.0392187271671858</v>
+        <v>0.012264176333662</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.10016866666667</v>
+        <v>5.154927333333333</v>
       </c>
       <c r="H7">
-        <v>30.300506</v>
+        <v>15.464782</v>
       </c>
       <c r="I7">
-        <v>0.3525180783492433</v>
+        <v>0.2461792235003055</v>
       </c>
       <c r="J7">
-        <v>0.396786715079774</v>
+        <v>0.2537674037418691</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.10016866666667</v>
+        <v>5.154927333333333</v>
       </c>
       <c r="N7">
-        <v>30.300506</v>
+        <v>15.464782</v>
       </c>
       <c r="O7">
-        <v>0.3525180783492433</v>
+        <v>0.2461792235003055</v>
       </c>
       <c r="P7">
-        <v>0.396786715079774</v>
+        <v>0.2537674037418691</v>
       </c>
       <c r="Q7">
-        <v>102.0134070951151</v>
+        <v>26.57327581194711</v>
       </c>
       <c r="R7">
-        <v>918.1206638560359</v>
+        <v>239.159482307524</v>
       </c>
       <c r="S7">
-        <v>0.1242689955630432</v>
+        <v>0.06060421008321335</v>
       </c>
       <c r="T7">
-        <v>0.1574396972637977</v>
+        <v>0.06439789520188881</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.10016866666667</v>
+        <v>5.154927333333333</v>
       </c>
       <c r="H8">
-        <v>30.300506</v>
+        <v>15.464782</v>
       </c>
       <c r="I8">
-        <v>0.3525180783492433</v>
+        <v>0.2461792235003055</v>
       </c>
       <c r="J8">
-        <v>0.396786715079774</v>
+        <v>0.2537674037418691</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.589755</v>
+        <v>1.8784265</v>
       </c>
       <c r="N8">
-        <v>19.17951</v>
+        <v>3.756853</v>
       </c>
       <c r="O8">
-        <v>0.3347035199121804</v>
+        <v>0.08970632314876403</v>
       </c>
       <c r="P8">
-        <v>0.2511566892559377</v>
+        <v>0.06164760887349412</v>
       </c>
       <c r="Q8">
-        <v>96.85814297201</v>
+        <v>9.683152108507665</v>
       </c>
       <c r="R8">
-        <v>581.14885783206</v>
+        <v>58.09891265104599</v>
       </c>
       <c r="S8">
-        <v>0.1179890416561696</v>
+        <v>0.02208383297583021</v>
       </c>
       <c r="T8">
-        <v>0.09965563770017509</v>
+        <v>0.01564415365072081</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.10016866666667</v>
+        <v>5.154927333333333</v>
       </c>
       <c r="H9">
-        <v>30.300506</v>
+        <v>15.464782</v>
       </c>
       <c r="I9">
-        <v>0.3525180783492433</v>
+        <v>0.2461792235003055</v>
       </c>
       <c r="J9">
-        <v>0.396786715079774</v>
+        <v>0.2537674037418691</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.445583666666667</v>
+        <v>12.924656</v>
       </c>
       <c r="N9">
-        <v>19.336751</v>
+        <v>38.773968</v>
       </c>
       <c r="O9">
-        <v>0.2249650320703492</v>
+        <v>0.617231160081383</v>
       </c>
       <c r="P9">
-        <v>0.2532157683969216</v>
+        <v>0.6362565726519981</v>
       </c>
       <c r="Q9">
-        <v>65.10148218844512</v>
+        <v>66.62566248833066</v>
       </c>
       <c r="R9">
-        <v>585.913339696006</v>
+        <v>599.6309623949759</v>
       </c>
       <c r="S9">
-        <v>0.07930424080121541</v>
+        <v>0.1519494877090276</v>
       </c>
       <c r="T9">
-        <v>0.1004726529486154</v>
+        <v>0.1614611785555975</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.589755</v>
+        <v>1.8784265</v>
       </c>
       <c r="H10">
-        <v>19.17951</v>
+        <v>3.756853</v>
       </c>
       <c r="I10">
-        <v>0.3347035199121804</v>
+        <v>0.08970632314876403</v>
       </c>
       <c r="J10">
-        <v>0.2511566892559377</v>
+        <v>0.06164760887349412</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.515984</v>
+        <v>0.9817236666666668</v>
       </c>
       <c r="N10">
-        <v>7.547951999999999</v>
+        <v>2.945171</v>
       </c>
       <c r="O10">
-        <v>0.08781336966822691</v>
+        <v>0.04688329326954743</v>
       </c>
       <c r="P10">
-        <v>0.09884082726736675</v>
+        <v>0.04832841473263862</v>
       </c>
       <c r="Q10">
-        <v>24.12767014392</v>
+        <v>1.844095751143833</v>
       </c>
       <c r="R10">
-        <v>144.76602086352</v>
+        <v>11.064574506863</v>
       </c>
       <c r="S10">
-        <v>0.02939144392330505</v>
+        <v>0.004205727856316295</v>
       </c>
       <c r="T10">
-        <v>0.02482453493978985</v>
+        <v>0.002979331208913716</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,16 +1092,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.589755</v>
+        <v>1.8784265</v>
       </c>
       <c r="H11">
-        <v>19.17951</v>
+        <v>3.756853</v>
       </c>
       <c r="I11">
-        <v>0.3347035199121804</v>
+        <v>0.08970632314876403</v>
       </c>
       <c r="J11">
-        <v>0.2511566892559377</v>
+        <v>0.06164760887349412</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1110,28 +1110,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.10016866666667</v>
+        <v>5.154927333333333</v>
       </c>
       <c r="N11">
-        <v>30.300506</v>
+        <v>15.464782</v>
       </c>
       <c r="O11">
-        <v>0.3525180783492433</v>
+        <v>0.2461792235003055</v>
       </c>
       <c r="P11">
-        <v>0.396786715079774</v>
+        <v>0.2537674037418691</v>
       </c>
       <c r="Q11">
-        <v>96.85814297201</v>
+        <v>9.683152108507665</v>
       </c>
       <c r="R11">
-        <v>581.14885783206</v>
+        <v>58.09891265104599</v>
       </c>
       <c r="S11">
-        <v>0.1179890416561696</v>
+        <v>0.02208383297583021</v>
       </c>
       <c r="T11">
-        <v>0.09965563770017509</v>
+        <v>0.01564415365072081</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,16 +1154,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.589755</v>
+        <v>1.8784265</v>
       </c>
       <c r="H12">
-        <v>19.17951</v>
+        <v>3.756853</v>
       </c>
       <c r="I12">
-        <v>0.3347035199121804</v>
+        <v>0.08970632314876403</v>
       </c>
       <c r="J12">
-        <v>0.2511566892559377</v>
+        <v>0.06164760887349412</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1172,28 +1172,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.589755</v>
+        <v>1.8784265</v>
       </c>
       <c r="N12">
-        <v>19.17951</v>
+        <v>3.756853</v>
       </c>
       <c r="O12">
-        <v>0.3347035199121804</v>
+        <v>0.08970632314876403</v>
       </c>
       <c r="P12">
-        <v>0.2511566892559377</v>
+        <v>0.06164760887349412</v>
       </c>
       <c r="Q12">
-        <v>91.963400960025</v>
+        <v>3.528486115902249</v>
       </c>
       <c r="R12">
-        <v>367.8536038401</v>
+        <v>14.113944463609</v>
       </c>
       <c r="S12">
-        <v>0.1120264462416034</v>
+        <v>0.008047224412870478</v>
       </c>
       <c r="T12">
-        <v>0.06307968255800366</v>
+        <v>0.003800427679819311</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,16 +1216,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.589755</v>
+        <v>1.8784265</v>
       </c>
       <c r="H13">
-        <v>19.17951</v>
+        <v>3.756853</v>
       </c>
       <c r="I13">
-        <v>0.3347035199121804</v>
+        <v>0.08970632314876403</v>
       </c>
       <c r="J13">
-        <v>0.2511566892559377</v>
+        <v>0.06164760887349412</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1234,28 +1234,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.445583666666667</v>
+        <v>12.924656</v>
       </c>
       <c r="N13">
-        <v>19.336751</v>
+        <v>38.773968</v>
       </c>
       <c r="O13">
-        <v>0.2249650320703492</v>
+        <v>0.617231160081383</v>
       </c>
       <c r="P13">
-        <v>0.2532157683969216</v>
+        <v>0.6362565726519981</v>
       </c>
       <c r="Q13">
-        <v>61.81156819533501</v>
+        <v>24.278016333784</v>
       </c>
       <c r="R13">
-        <v>370.86940917201</v>
+        <v>145.668098002704</v>
       </c>
       <c r="S13">
-        <v>0.07529658809110244</v>
+        <v>0.05536953790374705</v>
       </c>
       <c r="T13">
-        <v>0.06359683405796913</v>
+        <v>0.03922369633404027</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,16 +1278,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.445583666666667</v>
+        <v>12.924656</v>
       </c>
       <c r="H14">
-        <v>19.336751</v>
+        <v>38.773968</v>
       </c>
       <c r="I14">
-        <v>0.2249650320703492</v>
+        <v>0.617231160081383</v>
       </c>
       <c r="J14">
-        <v>0.2532157683969216</v>
+        <v>0.6362565726519981</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1296,28 +1296,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.515984</v>
+        <v>0.9817236666666668</v>
       </c>
       <c r="N14">
-        <v>7.547951999999999</v>
+        <v>2.945171</v>
       </c>
       <c r="O14">
-        <v>0.08781336966822691</v>
+        <v>0.04688329326954743</v>
       </c>
       <c r="P14">
-        <v>0.09884082726736675</v>
+        <v>0.04832841473263862</v>
       </c>
       <c r="Q14">
-        <v>16.21698537599466</v>
+        <v>12.68844067872533</v>
       </c>
       <c r="R14">
-        <v>145.952868383952</v>
+        <v>114.195966108528</v>
       </c>
       <c r="S14">
-        <v>0.0197549375236181</v>
+        <v>0.02893782949319845</v>
       </c>
       <c r="T14">
-        <v>0.02502805602549367</v>
+        <v>0.03074927151949298</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,16 +1340,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.445583666666667</v>
+        <v>12.924656</v>
       </c>
       <c r="H15">
-        <v>19.336751</v>
+        <v>38.773968</v>
       </c>
       <c r="I15">
-        <v>0.2249650320703492</v>
+        <v>0.617231160081383</v>
       </c>
       <c r="J15">
-        <v>0.2532157683969216</v>
+        <v>0.6362565726519981</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1358,28 +1358,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.10016866666667</v>
+        <v>5.154927333333333</v>
       </c>
       <c r="N15">
-        <v>30.300506</v>
+        <v>15.464782</v>
       </c>
       <c r="O15">
-        <v>0.3525180783492433</v>
+        <v>0.2461792235003055</v>
       </c>
       <c r="P15">
-        <v>0.396786715079774</v>
+        <v>0.2537674037418691</v>
       </c>
       <c r="Q15">
-        <v>65.10148218844512</v>
+        <v>66.62566248833066</v>
       </c>
       <c r="R15">
-        <v>585.913339696006</v>
+        <v>599.6309623949759</v>
       </c>
       <c r="S15">
-        <v>0.07930424080121541</v>
+        <v>0.1519494877090276</v>
       </c>
       <c r="T15">
-        <v>0.1004726529486154</v>
+        <v>0.1614611785555975</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,16 +1402,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.445583666666667</v>
+        <v>12.924656</v>
       </c>
       <c r="H16">
-        <v>19.336751</v>
+        <v>38.773968</v>
       </c>
       <c r="I16">
-        <v>0.2249650320703492</v>
+        <v>0.617231160081383</v>
       </c>
       <c r="J16">
-        <v>0.2532157683969216</v>
+        <v>0.6362565726519981</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1420,28 +1420,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.589755</v>
+        <v>1.8784265</v>
       </c>
       <c r="N16">
-        <v>19.17951</v>
+        <v>3.756853</v>
       </c>
       <c r="O16">
-        <v>0.3347035199121804</v>
+        <v>0.08970632314876403</v>
       </c>
       <c r="P16">
-        <v>0.2511566892559377</v>
+        <v>0.06164760887349412</v>
       </c>
       <c r="Q16">
-        <v>61.81156819533501</v>
+        <v>24.278016333784</v>
       </c>
       <c r="R16">
-        <v>370.86940917201</v>
+        <v>145.668098002704</v>
       </c>
       <c r="S16">
-        <v>0.07529658809110244</v>
+        <v>0.05536953790374705</v>
       </c>
       <c r="T16">
-        <v>0.06359683405796913</v>
+        <v>0.03922369633404027</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,16 +1464,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.445583666666667</v>
+        <v>12.924656</v>
       </c>
       <c r="H17">
-        <v>19.336751</v>
+        <v>38.773968</v>
       </c>
       <c r="I17">
-        <v>0.2249650320703492</v>
+        <v>0.617231160081383</v>
       </c>
       <c r="J17">
-        <v>0.2532157683969216</v>
+        <v>0.6362565726519981</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1482,28 +1482,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.445583666666667</v>
+        <v>12.924656</v>
       </c>
       <c r="N17">
-        <v>19.336751</v>
+        <v>38.773968</v>
       </c>
       <c r="O17">
-        <v>0.2249650320703492</v>
+        <v>0.617231160081383</v>
       </c>
       <c r="P17">
-        <v>0.2532157683969216</v>
+        <v>0.6362565726519981</v>
       </c>
       <c r="Q17">
-        <v>41.54554880400011</v>
+        <v>167.046732718336</v>
       </c>
       <c r="R17">
-        <v>373.909939236001</v>
+        <v>1503.420594465024</v>
       </c>
       <c r="S17">
-        <v>0.05060926565441326</v>
+        <v>0.3809743049754098</v>
       </c>
       <c r="T17">
-        <v>0.06411822536484345</v>
+        <v>0.4048224262428673</v>
       </c>
     </row>
   </sheetData>
